--- a/raw_data/scenario_headers_usgs_area_change.xlsx
+++ b/raw_data/scenario_headers_usgs_area_change.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="36000" windowHeight="13600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6180" yWindow="2140" windowWidth="26320" windowHeight="21440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_2010" sheetId="12" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="annual_managed_area" sheetId="31" r:id="rId3"/>
     <sheet name="annual_wildfire_area" sheetId="32" r:id="rId4"/>
     <sheet name="annual_mortality" sheetId="34" r:id="rId5"/>
+    <sheet name="veg_climate_scalars" sheetId="35" r:id="rId6"/>
+    <sheet name="soil_climate_scalars" sheetId="37" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t># Units: Hectares</t>
   </si>
@@ -37,19 +39,7 @@
     <t># Seagrass estimated extent range is 4451-6070 ha (NOAA)</t>
   </si>
   <si>
-    <t># total annaul average 2000-2015 area proportionally distributed across 2010 forest, woodland, savanna, shrubland, grassland area within each ownership</t>
-  </si>
-  <si>
-    <t># mean = 243931.10; stddev = 151439.00</t>
-  </si>
-  <si>
     <t># Annual net area change</t>
-  </si>
-  <si>
-    <t># These data are from the FRAP fire perimeter data set</t>
-  </si>
-  <si>
-    <t># so the wildfire areas will be distributed across forest, woodland, savanna, shrubland, and grassland proportionally each year, within each ownership class</t>
   </si>
   <si>
     <t># These change values will be applied each year after the carbon operations are completed, with adjustments to reflect lack of available area of existing types</t>
@@ -61,25 +51,13 @@
     <t># no NA values allowed</t>
   </si>
   <si>
-    <t># The initial year column is the historical baseline</t>
-  </si>
-  <si>
-    <t># Units: Hectares; na NA values allowed</t>
-  </si>
-  <si>
     <t># The value in the rightmost column will be applied to each subsequent year</t>
-  </si>
-  <si>
-    <t># Values will be linearly interpolated between years</t>
   </si>
   <si>
     <t># Add a year column as a target value for that year - any number of columns can be added, and use the same column label format, just change the year</t>
   </si>
   <si>
     <t># Annual burn area of wildfire, by land type and ownership class, 2010</t>
-  </si>
-  <si>
-    <t># Units: Hectares; no NA values allowed</t>
   </si>
   <si>
     <t># Units: Hectares; no NA values allowed- the sum of the land change needs to be zero</t>
@@ -153,6 +131,42 @@
   <si>
     <t># Area changes in the non-cultivated and non-urban land categories were calculated based on net changes in cultivated and urban area and in proportion to the land categories contribution to total non-cultivated and non-urban area within its corresponding region-ownership combination</t>
   </si>
+  <si>
+    <t># These data are from the CA fourth assessment</t>
+  </si>
+  <si>
+    <t># Initial year 2010 fire area: 2006-2015 average for each region-ownership proportionally distributed across 2010 forest, woodland, savanna, shrubland, grassland area</t>
+  </si>
+  <si>
+    <t># BAU: 2006-2015 annual trend in area for each region-ownership applied to initial burn area</t>
+  </si>
+  <si>
+    <t># so the wildfire areas will be distributed across forest, woodland, savanna, shrubland, and grassland proportionally each year, within each region-ownership class</t>
+  </si>
+  <si>
+    <t># Proportion of high severity has a positive BAU trend that is applied annually</t>
+  </si>
+  <si>
+    <t># Values will be linearly interpolated to fill in missing years</t>
+  </si>
+  <si>
+    <t># Vegetation climate scalars</t>
+  </si>
+  <si>
+    <t># These values directly scale the net vegetation carbon accumulation rates</t>
+  </si>
+  <si>
+    <t># They are calculated from an independent ecosystem model for a given climate scenario</t>
+  </si>
+  <si>
+    <t># Soil climate scalars</t>
+  </si>
+  <si>
+    <t># These values directly scale the net soil carbon accumulation rates</t>
+  </si>
+  <si>
+    <t># Units: Hectares; no NA values allowed</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +231,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="934">
+  <cellStyleXfs count="938">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1154,6 +1168,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1162,7 +1180,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="933" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="934">
+  <cellStyles count="938">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1629,6 +1647,8 @@
     <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="937" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2095,6 +2115,8 @@
     <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="936" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.String" xfId="933"/>
   </cellStyles>
@@ -2452,22 +2474,22 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2477,7 +2499,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2893,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -2911,32 +2933,32 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -5078,8 +5100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5094,52 +5116,52 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5793,7 +5815,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5809,52 +5831,52 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6129,7 +6151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -6142,52 +6166,52 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6720,4 +6744,145 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/raw_data/scenario_headers_usgs_area_change.xlsx
+++ b/raw_data/scenario_headers_usgs_area_change.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2140" windowWidth="26320" windowHeight="21440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="52020" yWindow="-280" windowWidth="26320" windowHeight="21440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="area_2010" sheetId="12" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t># developed_all mortality is transferred to harvest because it is highly managed; this allows for more control over the emissions pathway of this mortality</t>
   </si>
   <si>
-    <t># Developed growth in 2010 matches the historical change datain annual_net_area_change; Developed urban forest is the fraction of developed_all for that year, in 2010 this is 14.4% of Developed_all with a 1995- 2016 trend of 0.1619% increase per year (based on recent work by John Dingman at ARB), also Dead_removal = Developed_all area in any given year and must be caluculated from the initial area and growth rates (see Growth below)</t>
-  </si>
-  <si>
     <t># Represent the average of annual area changes from 2010-2050 (n=41) derived from USGS's business-as-usual (BAU) landuse-driven area change projections for cultivated and urban areas  (https://geography.wr.usgs.gov/LUCC/california_landchange_projections.php)</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t># Units: Hectares; no NA values allowed</t>
+  </si>
+  <si>
+    <t># Developed growth in 2010 matches the historical change data; Developed urban forest is the % of developed all for that year, in 2010 this is 15% of Developed_all (this is the historical baseline) annual increases are prescribed in target scenarios; Dead_removal is applied to the total developed_all area because that is the area basis for the urban forest values</t>
   </si>
 </sst>
 </file>
@@ -2943,12 +2943,12 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -5101,7 +5101,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5136,7 +5136,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5841,27 +5841,27 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5876,7 +5876,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6758,7 +6758,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6768,12 +6768,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6829,7 +6829,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6839,12 +6839,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
